--- a/数据整理/stocks/A股/上证主板/603858-步长制药.xlsx
+++ b/数据整理/stocks/A股/上证主板/603858-步长制药.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.90</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.61</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501012</t>
+          <t>512590</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）C</t>
+          <t>浦银安盛中证高股息精选ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512590</t>
+          <t>501012</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浦银安盛中证高股息精选ETF</t>
+          <t>汇添富中证中药指数（LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.22</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -632,15 +682,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.77</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.58</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501012</t>
+          <t>512590</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）C</t>
+          <t>浦银安盛中证高股息精选ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512590</t>
+          <t>501012</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浦银安盛中证高股息精选ETF</t>
+          <t>汇添富中证中药指数（LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>97.58</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603858-步长制药.xlsx
+++ b/数据整理/stocks/A股/上证主板/603858-步长制药.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603858-步长制药.xlsx
+++ b/数据整理/stocks/A股/上证主板/603858-步长制药.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1030,4 +1031,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603858-步长制药.xlsx
+++ b/数据整理/stocks/A股/上证主板/603858-步长制药.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603858-步长制药.xlsx
+++ b/数据整理/stocks/A股/上证主板/603858-步长制药.xlsx
@@ -1188,12 +1188,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603858-步长制药.xlsx
+++ b/数据整理/stocks/A股/上证主板/603858-步长制药.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.26</v>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1219,14 +1262,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="4">
@@ -1235,14 +1368,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="5">
@@ -1251,13 +1384,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603858-步长制药.xlsx
+++ b/数据整理/stocks/A股/上证主板/603858-步长制药.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,171 +455,627 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501011</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0848</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>512590</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>浦银安盛中证高股息精选ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.22</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0301</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501012</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0159</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -789,59 +1245,59 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -856,30 +1312,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1064</t>
+          <t>0.0848</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -894,30 +1350,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.81</t>
+          <t>99.22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0248</t>
+          <t>0.0301</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -932,485 +1388,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0213</t>
+          <t>0.0159</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007751</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.20</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0133</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007760</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.20</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>501011</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.54</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2141</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>501012</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0497</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000059</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国联安中证医药100指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0282</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006569</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国联安中证医药100指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603858-步长制药.xlsx
+++ b/数据整理/stocks/A股/上证主板/603858-步长制药.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -571,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000059</t>
+          <t>501011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国联安中证医药100指数A</t>
+          <t>汇添富中证中药指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>11.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.27</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0282</t>
+          <t>0.2772</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -660,36 +677,112 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006569</t>
+          <t>501012</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国联安中证医药100指数C</t>
+          <t>汇添富中证中药指数（LOF）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.27</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0044</t>
+          <t>0.1566</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>562390</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>561510</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -724,7 +817,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -754,36 +847,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501011</t>
+          <t>000059</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）A</t>
+          <t>国联安中证医药100指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.54</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>91.27</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2141</t>
+          <t>0.0282</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -792,36 +885,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501012</t>
+          <t>006569</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）C</t>
+          <t>国联安中证医药100指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>91.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0497</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -830,6 +923,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1075,7 +1300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1245,7 +1470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
